--- a/medicine/Psychotrope/Truite_à_la_vauclusienne/Truite_à_la_vauclusienne.xlsx
+++ b/medicine/Psychotrope/Truite_à_la_vauclusienne/Truite_à_la_vauclusienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Truite_%C3%A0_la_vauclusienne</t>
+          <t>Truite_à_la_vauclusienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La truite à la vauclusienne est un mets culinaire à base de truites pêchées dans la Sorgue, rivière qui est issue de la fontaine de Vaucluse, la plus importante exsurgence de France métropolitaine
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Truite_%C3%A0_la_vauclusienne</t>
+          <t>Truite_à_la_vauclusienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets est réalisé à base de truites, vin blanc, queues et pattes d'écrevisses, champignons, truffes, béchamel, jaunes d'œufs, panure, huile d'olive et beurre d'écrevisse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets est réalisé à base de truites, vin blanc, queues et pattes d'écrevisses, champignons, truffes, béchamel, jaunes d'œufs, panure, huile d'olive et beurre d'écrevisse.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Truite_%C3%A0_la_vauclusienne</t>
+          <t>Truite_à_la_vauclusienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les filets de truite sont pochés au vin blanc puis découpés en triangles. Sur ceux-ci sont déposés queues d'écrevisses, champignons et truffes recouverts de sauce béchamel liée avec des jaunes d'œufs. Ces portions sont ensuite panées et frites à l'huile d'olive. Lors du service, elles sont nappées d'une sauce au vin blanc réalisée avec le fond de cuisson et liée au beurre d'écrevisses[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les filets de truite sont pochés au vin blanc puis découpés en triangles. Sur ceux-ci sont déposés queues d'écrevisses, champignons et truffes recouverts de sauce béchamel liée avec des jaunes d'œufs. Ces portions sont ensuite panées et frites à l'huile d'olive. Lors du service, elles sont nappées d'une sauce au vin blanc réalisée avec le fond de cuisson et liée au beurre d'écrevisses.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Truite_%C3%A0_la_vauclusienne</t>
+          <t>Truite_à_la_vauclusienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Truites et huile d'olive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets, qui allie filets de truites, truffes et écrevisses, est traditionnellement frit à l'huile d'olive. Son utilisation était recommandée par Curnonsky qui expliquait : « Il n'est d'huile que d'olive. L'arôme exquis et fin de l'huile d'olive s'allie à la valeur des mets et rehausse le goût. L'huile d'olive apporte à la cuisson une suavité incomparable, elle améliore les mets, elle est la reine des fritures. » Quant à Brillat-Savarin, il conseillait, dans sa Physiologie du goût, de faire frire les truites « avec ce que vous avez de plus fin comme huile d'olive[2] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets, qui allie filets de truites, truffes et écrevisses, est traditionnellement frit à l'huile d'olive. Son utilisation était recommandée par Curnonsky qui expliquait : « Il n'est d'huile que d'olive. L'arôme exquis et fin de l'huile d'olive s'allie à la valeur des mets et rehausse le goût. L'huile d'olive apporte à la cuisson une suavité incomparable, elle améliore les mets, elle est la reine des fritures. » Quant à Brillat-Savarin, il conseillait, dans sa Physiologie du goût, de faire frire les truites « avec ce que vous avez de plus fin comme huile d'olive ».
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Truite_%C3%A0_la_vauclusienne</t>
+          <t>Truite_à_la_vauclusienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement ce mets s'accompagne du même vin blanc qui a servi à pocher les truites et à faire la sauce. Il peut être choisi tant en côtes-du-rhône, côtes-du-rhône villages, ventoux ou luberon. 
 </t>
